--- a/ScienceFair.xlsx
+++ b/ScienceFair.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaltius(New)\Material\NTUC\CNATIVE\DevOps Introduction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaltius(New)\Material\NTUC\CNATIVE\DevOps Introduction\Java CICD\ScienceProject-NTUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCD1944-DD02-4D7E-8FD9-C57EF2EF3F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A68812-3697-4031-8C21-96E6631B17C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F17B1FA8-E0BE-49DF-827B-EC9CDB015B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Alex Smith</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Sunit</t>
+  </si>
+  <si>
+    <t>Desmond</t>
+  </si>
+  <si>
+    <t>FSD</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,19 +132,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A232269-570A-4A08-BAA1-E602E9FCA71E}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,131 +514,147 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>9</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScienceFair.xlsx
+++ b/ScienceFair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaltius(New)\Material\NTUC\CNATIVE\DevOps Introduction\Java CICD\ScienceProject-NTUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A68812-3697-4031-8C21-96E6631B17C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF75290-5A41-48C4-885A-27AC21C807DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F17B1FA8-E0BE-49DF-827B-EC9CDB015B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Alex Smith</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>FSD</t>
+  </si>
+  <si>
+    <t>Da</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A232269-570A-4A08-BAA1-E602E9FCA71E}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,19 +645,32 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>7</v>
       </c>
       <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
